--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\varun\OneDrive\Documents\GitHub\Battery_Cycle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82CEF33-5DA1-4868-99CA-B08613FDCB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBC956C-3F0D-47E0-8D3F-4AFDDE79A88D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{480746C2-C57A-449A-B4D7-F0F947E5A5AD}"/>
   </bookViews>
@@ -488,9 +488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F434F9D-D41B-40AB-8369-C8D9BEA1DC16}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
